--- a/trunk/03 - Analise/Docs/Evolutivas/Evolutiva_12082013.xlsx
+++ b/trunk/03 - Analise/Docs/Evolutivas/Evolutiva_12082013.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="32">
   <si>
     <t>Cod. Erro</t>
   </si>
@@ -87,13 +87,7 @@
     <t xml:space="preserve">Criar status para venda e compra, em aberto e finalizado. Permitir editar somente as vendas em aberto. Ver como vai ficar essa lógica. Em aberto porque o funcionário pode alterar a venda mais tarde. Sinalizar com um botão verde(status em aberto) e Amarelo(status finalizado). </t>
   </si>
   <si>
-    <t>8h</t>
-  </si>
-  <si>
     <t>Moderado</t>
-  </si>
-  <si>
-    <t>72h</t>
   </si>
   <si>
     <t xml:space="preserve">3- Criar uma tela para forma de pagamento com os seguintes campos: Dinheiro, Bônus, Cheque1, data liberação cheque1, Cheque2, data liberação cheque 2.  Nessa tela ao confirmar a forma de pagamento validar a aprovação da venda.O calculo da data será alterado, será em feito em cima das datas colocadas nessa nova tela ao invés de sempre considera 30 e 60 dias. Na tela Venda retirar o combo de forma pagamento e colocar um botão para chamar a tela acima.
@@ -103,29 +97,32 @@
     <t>4-Na tela de revendedor colocar um botão ao lado do campo limite em uso. Esse botão vai exibir o histórico das valores a liberar, exibir numa grid com as colunas valor e data a liberar. Ex: Valor R$ 100,00 - Data 04/082013, Valor R$ 120,00 - Data 18/08/2013.</t>
   </si>
   <si>
-    <t>4h</t>
-  </si>
-  <si>
     <t>E006</t>
   </si>
   <si>
     <t>Adicionar mais um dígito no telefone</t>
   </si>
   <si>
-    <t>1h</t>
-  </si>
-  <si>
     <t>Como implementar</t>
   </si>
   <si>
     <t>Na tela consulta revendedor adicionar filtros: CEP, Cidade, Bairro e Telefone. Lembrar buscar por proximidade como é feito por código.</t>
+  </si>
+  <si>
+    <t>Valor Hora</t>
+  </si>
+  <si>
+    <t>Data Entrega</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,6 +135,18 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -166,10 +175,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -188,11 +198,71 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="7">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -224,7 +294,7 @@
   <autoFilter ref="B4:E12"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Cod. Erro"/>
-    <tableColumn id="2" name="Descrição Erro" dataDxfId="1"/>
+    <tableColumn id="2" name="Descrição Erro" dataDxfId="6"/>
     <tableColumn id="3" name="Nível"/>
     <tableColumn id="4" name="Num. Horas"/>
   </tableColumns>
@@ -233,16 +303,18 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="B4:F19" totalsRowShown="0">
-  <autoFilter ref="B4:F19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="B4:F20" totalsRowCount="1">
+  <autoFilter ref="B4:F20">
     <filterColumn colId="2"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" name="Cod. Evolutiva"/>
-    <tableColumn id="2" name="Descrição Evolutiva"/>
-    <tableColumn id="5" name="Como implementar" dataDxfId="0"/>
-    <tableColumn id="3" name="Nível"/>
-    <tableColumn id="4" name="Num Horas"/>
+    <tableColumn id="1" name="Cod. Evolutiva" totalsRowDxfId="4"/>
+    <tableColumn id="2" name="Descrição Evolutiva" totalsRowDxfId="3"/>
+    <tableColumn id="5" name="Como implementar" dataDxfId="5" totalsRowDxfId="2"/>
+    <tableColumn id="3" name="Nível" totalsRowDxfId="1"/>
+    <tableColumn id="4" name="Num Horas" totalsRowFunction="custom" totalsRowDxfId="0">
+      <totalsRowFormula>SUM(F5:F10)</totalsRowFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -651,10 +723,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B4:F17"/>
+  <dimension ref="B4:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -665,9 +737,12 @@
     <col min="4" max="4" width="51.140625" customWidth="1"/>
     <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:6">
+    <row r="4" spans="2:10">
       <c r="B4" t="s">
         <v>17</v>
       </c>
@@ -675,7 +750,7 @@
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
         <v>2</v>
@@ -683,8 +758,14 @@
       <c r="F4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" ht="29.25">
+      <c r="H4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="29.25">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -695,11 +776,21 @@
       <c r="E5" t="s">
         <v>5</v>
       </c>
-      <c r="F5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="43.5">
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="H5" s="8">
+        <v>3</v>
+      </c>
+      <c r="I5" s="8">
+        <f>H5*Tabela2[[#Totals],[Num Horas]]</f>
+        <v>279</v>
+      </c>
+      <c r="J5" s="11">
+        <v>41579</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="43.5">
       <c r="B6" t="s">
         <v>7</v>
       </c>
@@ -710,97 +801,107 @@
       <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="99.75">
+      <c r="F6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="99.75">
       <c r="B7" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="43.5">
+        <v>23</v>
+      </c>
+      <c r="F7">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="43.5">
       <c r="B8" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" t="s">
         <v>8</v>
       </c>
-      <c r="F8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="29.25">
+      <c r="F8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="29.25">
       <c r="B9" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" t="s">
         <v>5</v>
       </c>
-      <c r="F9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6">
+      <c r="F9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10">
       <c r="B10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" t="s">
         <v>5</v>
       </c>
-      <c r="F10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6">
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10">
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="2:6">
+    <row r="12" spans="2:10">
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="2:6">
+    <row r="13" spans="2:10">
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="2:6">
+    <row r="14" spans="2:10">
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="2:6">
+    <row r="15" spans="2:10">
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="2:6">
+    <row r="16" spans="2:10">
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="3:4">
+    <row r="17" spans="2:6">
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9">
+        <f>SUM(F5:F10)</f>
+        <v>93</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/trunk/03 - Analise/Docs/Evolutivas/Evolutiva_12082013.xlsx
+++ b/trunk/03 - Analise/Docs/Evolutivas/Evolutiva_12082013.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
   <si>
     <t>Cod. Erro</t>
   </si>
@@ -113,6 +113,12 @@
   </si>
   <si>
     <t>Data Entrega</t>
+  </si>
+  <si>
+    <t>Depois que usuário entrar com o valor pedido escrito comparar com o valor total com desconto se for diferente exiber uma popup com um mensagem de alerta assim: "O Valor do pedido escrito está diferente do valor total com desconto, deseja continuar?" exibir os botões sim e não.</t>
+  </si>
+  <si>
+    <t>Criar atributo statusPedido do tipo int na classe Pedido. Criar coluna status_pedido do tipo Int na tabela tb_pedido. Nas telas de pedido adicionar comobox situação do pedido com valor default "Em Aberto".  Ao Salvar o pedido lembrar o usuário o status do pedido para que ele possa finalizar a venda ou então deixa-lá em aberto.</t>
   </si>
 </sst>
 </file>
@@ -304,7 +310,7 @@
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="B4:F20" totalsRowCount="1">
-  <autoFilter ref="B4:F20">
+  <autoFilter ref="B4:F19">
     <filterColumn colId="2"/>
   </autoFilter>
   <tableColumns count="5">
@@ -725,8 +731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B4:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -765,14 +771,16 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="29.25">
+    <row r="5" spans="2:10" ht="86.25">
       <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="E5" t="s">
         <v>5</v>
       </c>
@@ -790,14 +798,16 @@
         <v>41579</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="43.5">
+    <row r="6" spans="2:10" ht="100.5">
       <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="E6" t="s">
         <v>8</v>
       </c>

--- a/trunk/03 - Analise/Docs/Evolutivas/Evolutiva_12082013.xlsx
+++ b/trunk/03 - Analise/Docs/Evolutivas/Evolutiva_12082013.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
   <si>
     <t>Cod. Erro</t>
   </si>
@@ -36,16 +36,10 @@
     <t>Fácil</t>
   </si>
   <si>
-    <t>2h</t>
-  </si>
-  <si>
     <t>E002</t>
   </si>
   <si>
     <t>Médio</t>
-  </si>
-  <si>
-    <t>6h</t>
   </si>
   <si>
     <t>E003</t>
@@ -119,6 +113,15 @@
   </si>
   <si>
     <t>Criar atributo statusPedido do tipo int na classe Pedido. Criar coluna status_pedido do tipo Int na tabela tb_pedido. Nas telas de pedido adicionar comobox situação do pedido com valor default "Em Aberto".  Ao Salvar o pedido lembrar o usuário o status do pedido para que ele possa finalizar a venda ou então deixa-lá em aberto.</t>
+  </si>
+  <si>
+    <t>O programa não aceita efetuar venda para um determinado Revendedor. (Ao abrir a Venda, digitamos o código deste Revendedor e o programa abre os dados dele normalmente. Entretanto, o código não fica salvo no campo e ao mandarmos fechar a venda, o programa avisa que é necessário digitar o código de um Revendedor, não reconhecendo aquele que fora digitado).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No Client criar nova tela forma pagamento com os campos: Dinheiro, Bônus, Valor Cheque 1, data liberação cheque 1, Valor Cheque 2, data liberação cheque 2. </t>
+  </si>
+  <si>
+    <t>Valor Total</t>
   </si>
 </sst>
 </file>
@@ -128,7 +131,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,6 +156,17 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -185,7 +199,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -208,12 +222,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="14">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -254,22 +313,6 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -287,8 +330,58 @@
       </font>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -296,13 +389,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="B4:E12" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="B4:E13" totalsRowCount="1">
   <autoFilter ref="B4:E12"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Cod. Erro"/>
-    <tableColumn id="2" name="Descrição Erro" dataDxfId="6"/>
-    <tableColumn id="3" name="Nível"/>
-    <tableColumn id="4" name="Num. Horas"/>
+    <tableColumn id="1" name="Cod. Erro" totalsRowDxfId="13"/>
+    <tableColumn id="2" name="Descrição Erro" dataDxfId="12" totalsRowDxfId="11"/>
+    <tableColumn id="3" name="Nível" totalsRowDxfId="10"/>
+    <tableColumn id="4" name="Num. Horas" totalsRowFunction="custom" totalsRowDxfId="9">
+      <totalsRowFormula>SUM(E5:E10)</totalsRowFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -314,15 +409,29 @@
     <filterColumn colId="2"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" name="Cod. Evolutiva" totalsRowDxfId="4"/>
-    <tableColumn id="2" name="Descrição Evolutiva" totalsRowDxfId="3"/>
-    <tableColumn id="5" name="Como implementar" dataDxfId="5" totalsRowDxfId="2"/>
-    <tableColumn id="3" name="Nível" totalsRowDxfId="1"/>
-    <tableColumn id="4" name="Num Horas" totalsRowFunction="custom" totalsRowDxfId="0">
+    <tableColumn id="1" name="Cod. Evolutiva" totalsRowDxfId="8"/>
+    <tableColumn id="2" name="Descrição Evolutiva" totalsRowDxfId="7"/>
+    <tableColumn id="5" name="Como implementar" dataDxfId="6" totalsRowDxfId="5"/>
+    <tableColumn id="3" name="Nível" totalsRowDxfId="4"/>
+    <tableColumn id="4" name="Num Horas" totalsRowFunction="custom" totalsRowDxfId="3">
       <totalsRowFormula>SUM(F5:F10)</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela4" displayName="Tabela4" ref="H4:J6" totalsRowShown="0">
+  <autoFilter ref="H4:J6"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Valor Hora" dataDxfId="2" dataCellStyle="Moeda"/>
+    <tableColumn id="2" name="Valor Total" dataDxfId="1" dataCellStyle="Moeda">
+      <calculatedColumnFormula>H5*Tabela2[[#Totals],[Num Horas]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" name="Data Entrega" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -611,10 +720,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B4:E12"/>
+  <dimension ref="B4:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E4:E5"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -636,7 +745,7 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="29.25">
@@ -649,74 +758,94 @@
       <c r="D5" t="s">
         <v>5</v>
       </c>
-      <c r="E5" t="s">
-        <v>6</v>
+      <c r="E5">
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="43.5">
       <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
+      <c r="E6">
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="29.25">
       <c r="B7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
         <v>5</v>
       </c>
-      <c r="E7" t="s">
-        <v>6</v>
+      <c r="E7">
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="45">
       <c r="B8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
         <v>5</v>
       </c>
-      <c r="E8" t="s">
-        <v>6</v>
+      <c r="E8">
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
         <v>5</v>
       </c>
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5">
-      <c r="C10" s="3"/>
+      <c r="E9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="72">
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>6</v>
+      </c>
     </row>
     <row r="11" spans="2:5">
       <c r="C11" s="3"/>
     </row>
     <row r="12" spans="2:5">
       <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="9"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9">
+        <f>SUM(E5:E10)</f>
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -731,8 +860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B4:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -743,32 +872,35 @@
     <col min="4" max="4" width="51.140625" customWidth="1"/>
     <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:10">
       <c r="B4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H4" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
+        <v>34</v>
       </c>
       <c r="J4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="86.25">
@@ -776,10 +908,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
         <v>5</v>
@@ -788,11 +920,11 @@
         <v>2</v>
       </c>
       <c r="H5" s="8">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="I5" s="8">
         <f>H5*Tabela2[[#Totals],[Num Horas]]</f>
-        <v>279</v>
+        <v>374.5</v>
       </c>
       <c r="J5" s="11">
         <v>41579</v>
@@ -800,31 +932,41 @@
     </row>
     <row r="6" spans="2:10" ht="100.5">
       <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
       <c r="F6">
-        <v>8</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="H6" s="14">
+        <v>12</v>
+      </c>
+      <c r="I6" s="14">
+        <f>H6*Tabela2[[#Totals],[Num Horas]]</f>
+        <v>1284</v>
+      </c>
+      <c r="J6" s="15"/>
     </row>
     <row r="7" spans="2:10" ht="99.75">
       <c r="B7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="6"/>
+        <v>22</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F7">
         <v>72</v>
@@ -832,25 +974,25 @@
     </row>
     <row r="8" spans="2:10" ht="43.5">
       <c r="B8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F8">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="29.25">
       <c r="B9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" t="s">
@@ -862,10 +1004,10 @@
     </row>
     <row r="10" spans="2:10">
       <c r="B10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" t="s">
@@ -910,14 +1052,15 @@
       <c r="E20" s="9"/>
       <c r="F20" s="9">
         <f>SUM(F5:F10)</f>
-        <v>93</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>

--- a/trunk/03 - Analise/Docs/Evolutivas/Evolutiva_12082013.xlsx
+++ b/trunk/03 - Analise/Docs/Evolutivas/Evolutiva_12082013.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="300" windowWidth="18735" windowHeight="11700" activeTab="1"/>
@@ -11,12 +11,12 @@
     <sheet name="Evolutivas_03082013" sheetId="2" r:id="rId2"/>
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="42">
   <si>
     <t>Cod. Erro</t>
   </si>
@@ -122,16 +122,43 @@
   </si>
   <si>
     <t>Valor Total</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Conclusão</t>
+  </si>
+  <si>
+    <t>Rodar selects:
+select * from tb_pedido where id_revendedor = 6; 
+1 resultado
+select * from tb_parcela where id_pagamento = 18;
+2 resultados
+update tb_revendedor set limite_emuso = 0, limite_utilizavel = 1500 where id = 6;</t>
+  </si>
+  <si>
+    <t>E007</t>
+  </si>
+  <si>
+    <t>Erro ao realizar venda para os revendedores de codigos: 001112 e 001135.
+Tem que fazer a venda inteira, o erro ocorre na conclusão da venda, quando, mesmo com a revendedora inserida na venda, o programa fala que para encerrar é necessário digitar o código do revendedor, que desaparece do campo, mantendo os dados dela aparente.</t>
+  </si>
+  <si>
+    <t>Adicionar Valor Total no Relatorio de Venda por Revendedor</t>
+  </si>
+  <si>
+    <t>Assim que salva informações complementares de revendedor se clicar em editar na tela de informações complementares a conta bancaria é duplicada.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,12 +196,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -199,15 +232,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -225,17 +252,34 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="15">
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
@@ -362,8 +406,6 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
@@ -373,9 +415,7 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
@@ -383,21 +423,39 @@
         <bottom/>
       </border>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="B4:E13" totalsRowCount="1">
-  <autoFilter ref="B4:E12"/>
-  <tableColumns count="4">
-    <tableColumn id="1" name="Cod. Erro" totalsRowDxfId="13"/>
-    <tableColumn id="2" name="Descrição Erro" dataDxfId="12" totalsRowDxfId="11"/>
-    <tableColumn id="3" name="Nível" totalsRowDxfId="10"/>
-    <tableColumn id="4" name="Num. Horas" totalsRowFunction="custom" totalsRowDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="B4:F13" totalsRowCount="1">
+  <autoFilter ref="B4:F12"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Cod. Erro" totalsRowDxfId="14"/>
+    <tableColumn id="2" name="Descrição Erro" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="3" name="Nível" totalsRowDxfId="11"/>
+    <tableColumn id="4" name="Num. Horas" totalsRowFunction="custom" totalsRowDxfId="10">
       <totalsRowFormula>SUM(E5:E10)</totalsRowFormula>
     </tableColumn>
+    <tableColumn id="5" name="Conclusão" totalsRowDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -405,9 +463,7 @@
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="B4:F20" totalsRowCount="1">
-  <autoFilter ref="B4:F19">
-    <filterColumn colId="2"/>
-  </autoFilter>
+  <autoFilter ref="B4:F19"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Cod. Evolutiva" totalsRowDxfId="8"/>
     <tableColumn id="2" name="Descrição Evolutiva" totalsRowDxfId="7"/>
@@ -510,6 +566,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -544,6 +601,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Escritório">
@@ -719,22 +777,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B4:E13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B6" sqref="B6:F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.140625" customWidth="1"/>
     <col min="3" max="3" width="87" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:5">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -747,105 +806,147 @@
       <c r="E4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" ht="29.25">
-      <c r="B5" t="s">
+      <c r="F4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="B5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="13">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" ht="43.5">
-      <c r="B6" t="s">
+      <c r="F5" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="B6" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" ht="29.25">
-      <c r="B7" t="s">
+      <c r="F6" s="19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="B7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="13">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" ht="45">
-      <c r="B8" t="s">
+      <c r="F7" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B8" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="13">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="2:5">
-      <c r="B9" t="s">
+      <c r="F8" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="2:5" ht="72">
-      <c r="B10" t="s">
+      <c r="F9" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="72" x14ac:dyDescent="0.25">
+      <c r="B10" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="2:5">
-      <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="2:5">
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="2:5">
-      <c r="B13" s="9"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9">
+      <c r="F10" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B11" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13">
+        <v>1</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B12" s="13"/>
+      <c r="C12" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="7"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7">
         <f>SUM(E5:E10)</f>
         <v>24</v>
       </c>
+      <c r="F13" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -857,14 +958,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.85546875" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
@@ -877,7 +978,7 @@
     <col min="10" max="10" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>15</v>
       </c>
@@ -903,41 +1004,41 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="86.25">
-      <c r="B5" t="s">
+    <row r="5" spans="2:10" ht="86.25" x14ac:dyDescent="0.25">
+      <c r="B5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="13">
         <v>2</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="6">
         <v>3.5</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="6">
         <f>H5*Tabela2[[#Totals],[Num Horas]]</f>
         <v>374.5</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="9">
         <v>41579</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="100.5">
+    <row r="6" spans="2:10" ht="100.5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E6" t="s">
@@ -946,23 +1047,23 @@
       <c r="F6">
         <v>16</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="11">
         <v>12</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I6" s="11">
         <f>H6*Tabela2[[#Totals],[Num Horas]]</f>
         <v>1284</v>
       </c>
-      <c r="J6" s="15"/>
-    </row>
-    <row r="7" spans="2:10" ht="99.75">
+      <c r="J6" s="12"/>
+    </row>
+    <row r="7" spans="2:10" ht="99.75" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="4" t="s">
         <v>33</v>
       </c>
       <c r="E7" t="s">
@@ -972,14 +1073,14 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="2:10" ht="43.5">
+    <row r="8" spans="2:10" ht="43.5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="7"/>
+      <c r="D8" s="5"/>
       <c r="E8" t="s">
         <v>7</v>
       </c>
@@ -987,22 +1088,22 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="29.25">
-      <c r="B9" t="s">
+    <row r="9" spans="2:10" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="B9" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" t="s">
+      <c r="D9" s="20"/>
+      <c r="E9" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="13">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>24</v>
       </c>
@@ -1017,40 +1118,42 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:10">
-      <c r="C11" s="1"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C11" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="2:10">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="2:10">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="2:6">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="20" spans="2:6">
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7">
         <f>SUM(F5:F10)</f>
         <v>107</v>
       </c>
@@ -1066,50 +1169,50 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="94.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:3">
-      <c r="C4" s="5"/>
-    </row>
-    <row r="5" spans="3:3">
-      <c r="C5" s="5"/>
-    </row>
-    <row r="6" spans="3:3">
-      <c r="C6" s="5"/>
-    </row>
-    <row r="7" spans="3:3">
-      <c r="C7" s="5"/>
-    </row>
-    <row r="8" spans="3:3">
-      <c r="C8" s="5"/>
-    </row>
-    <row r="9" spans="3:3">
-      <c r="C9" s="5"/>
-    </row>
-    <row r="10" spans="3:3">
-      <c r="C10" s="5"/>
-    </row>
-    <row r="11" spans="3:3">
-      <c r="C11" s="5"/>
-    </row>
-    <row r="12" spans="3:3">
-      <c r="C12" s="5"/>
-    </row>
-    <row r="13" spans="3:3">
-      <c r="C13" s="5"/>
-    </row>
-    <row r="14" spans="3:3">
-      <c r="C14" s="5"/>
+    <row r="4" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C14" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
